--- a/160-contenu-dossier-lier-les-deux-documents-cda-avec-lidnat_decision/ig/all-profiles.xlsx
+++ b/160-contenu-dossier-lier-les-deux-documents-cda-avec-lidnat_decision/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T14:22:12+00:00</t>
+    <t>2024-10-15T14:25:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
